--- a/output/fit_clients/fit_round_297.xlsx
+++ b/output/fit_clients/fit_round_297.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2408002567.3675</v>
+        <v>2407290905.245223</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08988989919592287</v>
+        <v>0.08893446573960148</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03865530594740303</v>
+        <v>0.03066252913841808</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1204001334.167952</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2389858065.938751</v>
+        <v>1778553190.006329</v>
       </c>
       <c r="F3" t="n">
-        <v>0.139042437849225</v>
+        <v>0.1187891958990546</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0406428127240399</v>
+        <v>0.03177180136793493</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1194929133.406592</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3766823554.252939</v>
+        <v>4536480534.014294</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1019400008993855</v>
+        <v>0.1175073872713108</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03243613142318542</v>
+        <v>0.03543616897428774</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>107</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1883411774.782235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3019299194.676944</v>
+        <v>2939514384.732316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09499013946131608</v>
+        <v>0.0753046468703739</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04314435153176277</v>
+        <v>0.04498246319601795</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1509649665.919669</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2425579734.467109</v>
+        <v>2559286915.906631</v>
       </c>
       <c r="F6" t="n">
-        <v>0.122070048453495</v>
+        <v>0.1036629132310293</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03933959049763173</v>
+        <v>0.04154995178077725</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>56</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1212789850.771483</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2356166600.118103</v>
+        <v>2748042934.436154</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0850669711318934</v>
+        <v>0.1015983824767989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0459711941318514</v>
+        <v>0.03177888701788219</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>93</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1178083326.983718</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3932737388.475097</v>
+        <v>2456968297.606302</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2185676648763447</v>
+        <v>0.1765129657310393</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02762169856674978</v>
+        <v>0.0224526696815746</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>94</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1966368847.106496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2155001959.396099</v>
+        <v>2253564898.123789</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1947953875823348</v>
+        <v>0.1360471811225586</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02554523414048024</v>
+        <v>0.03389076579441912</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1077500984.810712</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4230052630.084345</v>
+        <v>5446889333.17492</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2156717941191129</v>
+        <v>0.1979848255122952</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03679457597095587</v>
+        <v>0.04251249079534784</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>125</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2115026354.772052</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3450716631.819568</v>
+        <v>2950163094.637058</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1384855369158382</v>
+        <v>0.1507260494745388</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03333853538328072</v>
+        <v>0.04789060413710577</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>123</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1725358290.267971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3267160540.778756</v>
+        <v>2035264091.957239</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1236772343156598</v>
+        <v>0.1859530645711639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03327145700707723</v>
+        <v>0.03584601460385874</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>101</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1633580312.882685</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4682168390.813604</v>
+        <v>3858026010.132311</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09685825282894113</v>
+        <v>0.087957904709991</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02703812768888283</v>
+        <v>0.02278356038526982</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>99</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2341084215.683656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2514590184.492991</v>
+        <v>3885199300.988259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1875057510038984</v>
+        <v>0.1458172523129939</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04001055669450749</v>
+        <v>0.03644953831296175</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1257295161.840337</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1648888901.784902</v>
+        <v>1726090065.040207</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06659472386787843</v>
+        <v>0.07843227713755453</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03397845655543299</v>
+        <v>0.03632654980470968</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>824444570.147952</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2683516652.563611</v>
+        <v>2849447531.052341</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08312270062412001</v>
+        <v>0.07128884599630654</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04512110461917009</v>
+        <v>0.04185671937208534</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>57</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1341758340.708596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4323014946.447966</v>
+        <v>4500314144.734987</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1063871125433802</v>
+        <v>0.1624935055259542</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03264671566044207</v>
+        <v>0.03994216032298756</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>87</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2161507491.848515</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2635193622.271172</v>
+        <v>2460592966.285649</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1621677517697191</v>
+        <v>0.1564589739045067</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02783459916048478</v>
+        <v>0.02662579124537721</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>97</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1317596867.860706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>933105973.2309905</v>
+        <v>1269246268.980597</v>
       </c>
       <c r="F19" t="n">
-        <v>0.171691111045877</v>
+        <v>0.115350476903152</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02329998850481993</v>
+        <v>0.0219769231684033</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>466552999.5804337</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2118955748.13029</v>
+        <v>2192073302.468403</v>
       </c>
       <c r="F20" t="n">
-        <v>0.155583087192748</v>
+        <v>0.1006251442402737</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02234823583568682</v>
+        <v>0.02622535307780109</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1059477887.727289</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2520112103.825958</v>
+        <v>2375301757.836881</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07628001252721682</v>
+        <v>0.08722294501852941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02891943016816772</v>
+        <v>0.03686457533132004</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1260056038.116363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2469471629.735191</v>
+        <v>2518137242.527304</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1021411355519809</v>
+        <v>0.1396848178706406</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04927667319090921</v>
+        <v>0.03963334048537299</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1234735908.168829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1039578409.655259</v>
+        <v>1208823314.097908</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1828066770497586</v>
+        <v>0.1788129342932983</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03714618275130122</v>
+        <v>0.0501850721746418</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>519789268.3554969</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3666214957.049919</v>
+        <v>3078334411.937033</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1389921440365672</v>
+        <v>0.1075660416486037</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03320231109410358</v>
+        <v>0.03652091896324852</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>87</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1833107468.961679</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1154854248.838748</v>
+        <v>1040822122.875283</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07554999375357574</v>
+        <v>0.09203799138331986</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02502442963036398</v>
+        <v>0.02413932548823847</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>577427152.795644</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1179436992.870318</v>
+        <v>958608812.1978722</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1029109726673399</v>
+        <v>0.1029519910794338</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03654744709116812</v>
+        <v>0.03068659597197192</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>589718512.4209963</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4002019808.333228</v>
+        <v>3837596107.124984</v>
       </c>
       <c r="F27" t="n">
-        <v>0.116111426111765</v>
+        <v>0.1252377653683731</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01804349247913324</v>
+        <v>0.02269899535424782</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2001009914.205679</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3826018004.255833</v>
+        <v>3127343437.387748</v>
       </c>
       <c r="F28" t="n">
-        <v>0.108677319511371</v>
+        <v>0.1312633435411771</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04127596153812179</v>
+        <v>0.03765127563185898</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1913009085.041495</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4395059491.874695</v>
+        <v>4385257001.712311</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1022211409399049</v>
+        <v>0.1150006925035575</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03248579077240889</v>
+        <v>0.03948315022607878</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>131</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2197529735.416929</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1945845524.324763</v>
+        <v>2157008943.901036</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1319775936032494</v>
+        <v>0.09222253618393744</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02857577319518334</v>
+        <v>0.03299556092405834</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>972922793.455115</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1492081819.480833</v>
+        <v>1500467911.360524</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07909257788876628</v>
+        <v>0.1092307508449047</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05180662980942189</v>
+        <v>0.0327921212509505</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>746040792.4429435</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1535044386.938176</v>
+        <v>1822337757.304589</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08839793810466688</v>
+        <v>0.1137031081651839</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02726044125246401</v>
+        <v>0.03266584550854495</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>767522269.0763966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2404611709.349531</v>
+        <v>2926068572.370164</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1776809349019682</v>
+        <v>0.1385124157802037</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05621604610844318</v>
+        <v>0.05223965171096175</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1202305901.031271</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1487640155.343014</v>
+        <v>1465019227.988523</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07545082019543756</v>
+        <v>0.1133948029847245</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02309972445806847</v>
+        <v>0.02658545184816953</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>743820035.52634</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>926178089.2637988</v>
+        <v>871135600.4956911</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08642036632654466</v>
+        <v>0.0827423165512129</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03459795598863456</v>
+        <v>0.03128424658505366</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>463089079.3863066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2241705592.525609</v>
+        <v>2309160838.420564</v>
       </c>
       <c r="F36" t="n">
-        <v>0.139527816150481</v>
+        <v>0.1481677816869081</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01970357896773696</v>
+        <v>0.02133722209917017</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>75</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1120852838.91438</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2136561612.440778</v>
+        <v>2829746681.396943</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09302424713712451</v>
+        <v>0.08682692196098414</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03656434077986391</v>
+        <v>0.02859087395713433</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>78</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1068280852.295122</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1612634010.93456</v>
+        <v>1747867859.230105</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1140592831817151</v>
+        <v>0.08122179806031657</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03378119644795533</v>
+        <v>0.03420556678342768</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>806317038.8140872</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1816731658.625403</v>
+        <v>1503196329.342575</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1705816212364885</v>
+        <v>0.1605364535242255</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02430360649708614</v>
+        <v>0.02183896702140597</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>908365851.6983898</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1375006172.423112</v>
+        <v>1761209756.290788</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1275819807677817</v>
+        <v>0.1177456586330393</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05489348287196267</v>
+        <v>0.05381581937474537</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>687503083.695964</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1839291521.726914</v>
+        <v>1772146183.737644</v>
       </c>
       <c r="F41" t="n">
-        <v>0.106696859565459</v>
+        <v>0.1568683634892856</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03055618638214642</v>
+        <v>0.02851599534329164</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>74</v>
-      </c>
-      <c r="J41" t="n">
-        <v>919645850.8702325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2658208356.686088</v>
+        <v>3800004973.113369</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1120923192749844</v>
+        <v>0.1070685522233645</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02989873839332012</v>
+        <v>0.02960889847468914</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1329104115.278766</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3084779998.321585</v>
+        <v>2235674360.44067</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1915677094039401</v>
+        <v>0.2037485814489465</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02171364043861137</v>
+        <v>0.01912660169072742</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>109</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1542389989.027151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2299443472.765545</v>
+        <v>1716082964.130499</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06973656665803105</v>
+        <v>0.06208071002067165</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03278845366112763</v>
+        <v>0.02477776487059571</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1149721902.464082</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2215618601.50811</v>
+        <v>1534687929.312706</v>
       </c>
       <c r="F45" t="n">
-        <v>0.167736345144361</v>
+        <v>0.1627690398220477</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05153162315137674</v>
+        <v>0.03751523671944971</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1107809313.330136</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4518494307.808159</v>
+        <v>5570510818.71282</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1576582637975199</v>
+        <v>0.1542125972815511</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05407644547018089</v>
+        <v>0.0376070466773229</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>105</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2259247153.161152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4516877947.367741</v>
+        <v>3552276006.129969</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1463956578980789</v>
+        <v>0.1768582232565138</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04761533390399374</v>
+        <v>0.049293787227779</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>79</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2258439002.085661</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3435491954.341221</v>
+        <v>3957343070.873443</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08838166695796124</v>
+        <v>0.0975659096896736</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0343465083391063</v>
+        <v>0.03322994813353149</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1717746044.332505</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1642554795.102633</v>
+        <v>1689569555.888218</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1705527983901723</v>
+        <v>0.129111807940213</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02910284844132681</v>
+        <v>0.02773335438362867</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>821277407.406992</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4208500330.072247</v>
+        <v>3263119859.20369</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1477815603523041</v>
+        <v>0.1720047273096341</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05002170123133192</v>
+        <v>0.04648049847878899</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>101</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2104250138.876087</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1385436758.35155</v>
+        <v>1056794025.305658</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1771812540910516</v>
+        <v>0.1417544559882376</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05054035768752107</v>
+        <v>0.04495105377733237</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>692718400.674994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5205031114.754595</v>
+        <v>5209980266.293501</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1331370369761577</v>
+        <v>0.1349824604094144</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05022562682003778</v>
+        <v>0.05065334799190638</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>122</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2602515542.934666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3033872152.887434</v>
+        <v>3444975738.065308</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1256051383285093</v>
+        <v>0.1960897917735769</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0245566249919266</v>
+        <v>0.02603003336145704</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>86</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1516936106.506124</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3204152804.493614</v>
+        <v>4530406541.983691</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1436087649095908</v>
+        <v>0.1078455751892697</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03587890527609622</v>
+        <v>0.05164936395468708</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>97</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1602076403.835888</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3038301325.199504</v>
+        <v>3600641171.403237</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1997680954263573</v>
+        <v>0.1981966801976751</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0286849702057864</v>
+        <v>0.03240947330826247</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>84</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1519150595.067617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1567892009.374029</v>
+        <v>1139199026.334075</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1092992400292826</v>
+        <v>0.1049933636806109</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05112973384861076</v>
+        <v>0.04828316503142337</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>783946036.8959267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3378689820.811462</v>
+        <v>3074349828.872715</v>
       </c>
       <c r="F57" t="n">
-        <v>0.176502145519738</v>
+        <v>0.1564137960668343</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02606548682571796</v>
+        <v>0.01782988925340916</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>94</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1689344946.608046</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1287113874.811796</v>
+        <v>1749247918.100464</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1983185343112878</v>
+        <v>0.1489367388516524</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03006254623964055</v>
+        <v>0.02424554947025403</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>643556987.9600689</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3585588621.054199</v>
+        <v>4577574213.029251</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1227494124993885</v>
+        <v>0.09415888225180764</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03479893252378964</v>
+        <v>0.03822537851145002</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>80</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1792794306.474136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3450036204.541543</v>
+        <v>3270705096.549196</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2032449287175521</v>
+        <v>0.1444712244512304</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02412322656397063</v>
+        <v>0.02488887022453939</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>93</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1725018219.828598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3014376332.654309</v>
+        <v>2144712473.303598</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1361413579091782</v>
+        <v>0.1361799314771361</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03125840252636099</v>
+        <v>0.02504779045960503</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>102</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1507188145.441818</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2096246539.996889</v>
+        <v>2103353355.238598</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1928494377290699</v>
+        <v>0.1490990380562452</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0377547427839811</v>
+        <v>0.04819419344382011</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1048123342.518748</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4564617678.412785</v>
+        <v>5477347929.466338</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07014485009390733</v>
+        <v>0.0992637514614273</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0353353003308857</v>
+        <v>0.03020937711912665</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>84</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2282308876.416487</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5471375355.626005</v>
+        <v>4338491088.389935</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1584627545135556</v>
+        <v>0.1687275259152153</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03486395479475054</v>
+        <v>0.02853932525808524</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>92</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2735687817.172071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3851009380.847947</v>
+        <v>5185284344.68364</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1232783701040663</v>
+        <v>0.1721057727334739</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02276219904072732</v>
+        <v>0.02414514722012309</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>106</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1925504717.895699</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4440529424.173265</v>
+        <v>5161029295.566285</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09967720154404756</v>
+        <v>0.1149943288178084</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03094361465020197</v>
+        <v>0.04485219705730667</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>86</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2220264709.256062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3271369622.450357</v>
+        <v>2454625869.430495</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07233510416865098</v>
+        <v>0.07742409531642419</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03657073099602826</v>
+        <v>0.03131855664428635</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>95</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1635684806.548795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4312669564.86434</v>
+        <v>4029422224.049036</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1538622747217484</v>
+        <v>0.118802237908487</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03543441381821022</v>
+        <v>0.04443776869401498</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2156334797.167685</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2089996722.502833</v>
+        <v>2178062537.343155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1172411387560809</v>
+        <v>0.1600163046801237</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04667153393936504</v>
+        <v>0.05911296271861575</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1044998377.869491</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3218005706.439011</v>
+        <v>3613622899.705597</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06656539340265583</v>
+        <v>0.09818836368025308</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03763030554595349</v>
+        <v>0.04490139858899283</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>85</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1609002844.471055</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4244844667.160254</v>
+        <v>5489088951.452348</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1812907043539413</v>
+        <v>0.1592621531379347</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03295607701669955</v>
+        <v>0.02890405394007482</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>108</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2122422382.885157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2282400265.481472</v>
+        <v>1945748920.170299</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09599380659295038</v>
+        <v>0.08232196771989464</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04016902345782724</v>
+        <v>0.04107188369668129</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1141200033.558154</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3018123845.656918</v>
+        <v>2838757725.642097</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08939342002412307</v>
+        <v>0.09887150757083245</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03995906607654941</v>
+        <v>0.04025759815032381</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>113</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1509061917.149252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3196865009.221682</v>
+        <v>3470552042.860852</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1612377924259654</v>
+        <v>0.1833158872652513</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03419298229020409</v>
+        <v>0.03449431365251807</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>101</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1598432553.012484</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1564988976.878014</v>
+        <v>2086615064.86652</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1608048959049315</v>
+        <v>0.1432917079371613</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03741493090024147</v>
+        <v>0.02971695052396399</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>782494493.4083698</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3422740054.953577</v>
+        <v>5230231857.090588</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07745530471162826</v>
+        <v>0.07825453550584822</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02722571218199044</v>
+        <v>0.0271529777604771</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>70</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1711369987.959788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2161982378.145838</v>
+        <v>1778530528.529234</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1647753303800285</v>
+        <v>0.1356664101566105</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02484999289213441</v>
+        <v>0.02385654700015176</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1080991274.514024</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4485552370.036349</v>
+        <v>3767091707.713927</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1184995511429454</v>
+        <v>0.08705790985821922</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05000754302922251</v>
+        <v>0.04461788416187804</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>103</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2242776115.979111</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1340089350.637598</v>
+        <v>1632160306.380844</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1704010913960371</v>
+        <v>0.1619926948967436</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02509585260632848</v>
+        <v>0.03879011894392009</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>670044681.5775241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4667836046.892155</v>
+        <v>4327014357.88739</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08648092348100428</v>
+        <v>0.09775525600634559</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02824551933022919</v>
+        <v>0.03025280104654406</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>62</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2333918056.120625</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3417122907.389098</v>
+        <v>3589557938.706618</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08378037438904563</v>
+        <v>0.08775353821646191</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02975171407264798</v>
+        <v>0.03197651638256684</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1708561395.280268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4282942339.580274</v>
+        <v>4639481848.97567</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1310238123937477</v>
+        <v>0.208274352766651</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02943452630540255</v>
+        <v>0.02341413960528136</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>105</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2141471193.772302</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1984326879.383166</v>
+        <v>2044487991.831544</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1095904367819688</v>
+        <v>0.1538449430682624</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03235070424946126</v>
+        <v>0.0452656696683592</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>992163423.0183699</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2462996655.737471</v>
+        <v>2160419599.661153</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1037061404694374</v>
+        <v>0.104069109332733</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0443630354749857</v>
+        <v>0.04338342958402769</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1231498265.077059</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2652715734.167979</v>
+        <v>3298831522.194397</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1517613348970694</v>
+        <v>0.178823109490646</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03858265010563992</v>
+        <v>0.03577584332164496</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>112</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1326357888.880457</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1894429462.873568</v>
+        <v>1963712886.034702</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1278803438807881</v>
+        <v>0.118842848650345</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01692648439414447</v>
+        <v>0.02756618527681361</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39</v>
-      </c>
-      <c r="J86" t="n">
-        <v>947214744.3813026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1390433720.749938</v>
+        <v>1294384703.944435</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1373502876555368</v>
+        <v>0.1277227121804053</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04092346377471269</v>
+        <v>0.04309159519958562</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>695216964.7693735</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3270292964.294979</v>
+        <v>3165521026.519998</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1220118642321247</v>
+        <v>0.1357602397716636</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03168489127919743</v>
+        <v>0.02680866247996337</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>118</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1635146539.299621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3020936990.162939</v>
+        <v>3241286817.062302</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1464686176574772</v>
+        <v>0.1155712847174058</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04053927263443721</v>
+        <v>0.03743664897450987</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>101</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1510468531.67094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1539897307.533978</v>
+        <v>2011095854.21235</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1026258194476028</v>
+        <v>0.08466877371052625</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05025573907007163</v>
+        <v>0.04031994570260939</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>769948639.798004</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1507645107.942118</v>
+        <v>1777688814.191637</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1263356869886268</v>
+        <v>0.1901194913516469</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05792310386213457</v>
+        <v>0.05962394004718682</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>753822591.8623484</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2476705398.735592</v>
+        <v>2533393963.960972</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08579692997065821</v>
+        <v>0.1062322203328235</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04096176026356314</v>
+        <v>0.04365009585992261</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>77</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1238352681.551628</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4116699286.698857</v>
+        <v>4533667057.78214</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1409109551887108</v>
+        <v>0.103574492478408</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03753031076681666</v>
+        <v>0.03521092211538805</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2058349636.432646</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1596365461.183349</v>
+        <v>1950569804.529993</v>
       </c>
       <c r="F94" t="n">
-        <v>0.161323349242411</v>
+        <v>0.1331857226057109</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03598560816750124</v>
+        <v>0.03962687876261698</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>798182676.41225</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2249730626.359377</v>
+        <v>3071665269.951893</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1293635282555156</v>
+        <v>0.08975979085488234</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03867276182388937</v>
+        <v>0.05250319563676407</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1124865367.455567</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1812682746.869753</v>
+        <v>2296951644.271485</v>
       </c>
       <c r="F96" t="n">
-        <v>0.128180436942224</v>
+        <v>0.1231602518690394</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04268361370152729</v>
+        <v>0.03927950124981648</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>906341380.4185183</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4027331179.534469</v>
+        <v>4282471814.341941</v>
       </c>
       <c r="F97" t="n">
-        <v>0.170634021890096</v>
+        <v>0.1408794553113627</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02434047538284885</v>
+        <v>0.0227730183232605</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>96</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2013665648.33931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3344959089.437602</v>
+        <v>2967939896.000793</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09612050361781922</v>
+        <v>0.123286945632621</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02038730939499768</v>
+        <v>0.02087004386594827</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>79</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1672479552.79388</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2331229812.041068</v>
+        <v>2287373055.702233</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09549968797885028</v>
+        <v>0.1063786685213333</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03267489217852246</v>
+        <v>0.02396141049698358</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>94</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1165614843.527023</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4372967576.715235</v>
+        <v>4624457155.17637</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1548630241888825</v>
+        <v>0.1621412973840483</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02809041687248052</v>
+        <v>0.02463342455237653</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>92</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2186483888.820667</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2549398730.397902</v>
+        <v>2618089121.782712</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1769435746890131</v>
+        <v>0.2133028216821257</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03849623038110774</v>
+        <v>0.0422404308687307</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>118</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1274699394.684509</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_297.xlsx
+++ b/output/fit_clients/fit_round_297.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2407290905.245223</v>
+        <v>2331305270.077207</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08893446573960148</v>
+        <v>0.103846043027645</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03066252913841808</v>
+        <v>0.04036823705636172</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1778553190.006329</v>
+        <v>2116929310.161699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1187891958990546</v>
+        <v>0.1579446848597655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03177180136793493</v>
+        <v>0.04853248484691688</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4536480534.014294</v>
+        <v>3233913421.386847</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1175073872713108</v>
+        <v>0.1530371481871364</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03543616897428774</v>
+        <v>0.02645947325165386</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2939514384.732316</v>
+        <v>3293692706.657603</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0753046468703739</v>
+        <v>0.07522134446580019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04498246319601795</v>
+        <v>0.04502633323973018</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2559286915.906631</v>
+        <v>2685685376.97549</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1036629132310293</v>
+        <v>0.09208150538539281</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04154995178077725</v>
+        <v>0.03934043649892056</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2748042934.436154</v>
+        <v>2867009820.395066</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1015983824767989</v>
+        <v>0.07725640922633317</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03177888701788219</v>
+        <v>0.03235612131817115</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2456968297.606302</v>
+        <v>2869051741.175626</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1765129657310393</v>
+        <v>0.1998527508852922</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0224526696815746</v>
+        <v>0.02449136562216866</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2253564898.123789</v>
+        <v>2243975332.276426</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1360471811225586</v>
+        <v>0.1797313189857781</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03389076579441912</v>
+        <v>0.02874583259661288</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5446889333.17492</v>
+        <v>4246659314.37002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1979848255122952</v>
+        <v>0.1586073401118147</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04251249079534784</v>
+        <v>0.03367642837829521</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2950163094.637058</v>
+        <v>2905376201.447505</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1507260494745388</v>
+        <v>0.1404847023789446</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04789060413710577</v>
+        <v>0.04851551475989416</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2035264091.957239</v>
+        <v>2110526044.131997</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1859530645711639</v>
+        <v>0.140196146032312</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03584601460385874</v>
+        <v>0.03709619701987614</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3858026010.132311</v>
+        <v>4128827693.815733</v>
       </c>
       <c r="F13" t="n">
-        <v>0.087957904709991</v>
+        <v>0.09234390036146178</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02278356038526982</v>
+        <v>0.02502905236169098</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3885199300.988259</v>
+        <v>3324583279.860295</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1458172523129939</v>
+        <v>0.1662246393102272</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03644953831296175</v>
+        <v>0.03143274947528819</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1726090065.040207</v>
+        <v>1426970019.206378</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07843227713755453</v>
+        <v>0.08117098314230206</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03632654980470968</v>
+        <v>0.03363405193533248</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2849447531.052341</v>
+        <v>1949578122.104115</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07128884599630654</v>
+        <v>0.09529058024161266</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04185671937208534</v>
+        <v>0.04255836205693615</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4500314144.734987</v>
+        <v>4431976921.565613</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1624935055259542</v>
+        <v>0.1537929936551363</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03994216032298756</v>
+        <v>0.03534089586967298</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2460592966.285649</v>
+        <v>4019443971.338151</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1564589739045067</v>
+        <v>0.1442849999444149</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02662579124537721</v>
+        <v>0.03370351094950235</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1269246268.980597</v>
+        <v>1046133308.29153</v>
       </c>
       <c r="F19" t="n">
-        <v>0.115350476903152</v>
+        <v>0.1326947774062152</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0219769231684033</v>
+        <v>0.02671093625838799</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2192073302.468403</v>
+        <v>2555179799.220517</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1006251442402737</v>
+        <v>0.1431636031263394</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02622535307780109</v>
+        <v>0.02871019586060374</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2375301757.836881</v>
+        <v>2380605192.108567</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08722294501852941</v>
+        <v>0.09035420532361466</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03686457533132004</v>
+        <v>0.04152964391947891</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2518137242.527304</v>
+        <v>3328215537.101215</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1396848178706406</v>
+        <v>0.1366757102487372</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03963334048537299</v>
+        <v>0.04632813681181946</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1208823314.097908</v>
+        <v>1392213546.576713</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1788129342932983</v>
+        <v>0.17651090753348</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0501850721746418</v>
+        <v>0.03840815207504179</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3078334411.937033</v>
+        <v>2829288680.825968</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1075660416486037</v>
+        <v>0.1165472082075555</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03652091896324852</v>
+        <v>0.0313843487647887</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1040822122.875283</v>
+        <v>911748884.053637</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09203799138331986</v>
+        <v>0.09283520971852632</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02413932548823847</v>
+        <v>0.01922092278900598</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>958608812.1978722</v>
+        <v>1032543625.490834</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1029519910794338</v>
+        <v>0.1017125502356304</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03068659597197192</v>
+        <v>0.0348536173592914</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3837596107.124984</v>
+        <v>4435771435.117579</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1252377653683731</v>
+        <v>0.1325811118663899</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02269899535424782</v>
+        <v>0.01673050715894154</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3127343437.387748</v>
+        <v>3154367546.64782</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1312633435411771</v>
+        <v>0.1208261029120234</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03765127563185898</v>
+        <v>0.04767874213906088</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4385257001.712311</v>
+        <v>5555444263.923455</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1150006925035575</v>
+        <v>0.1082216996560772</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03948315022607878</v>
+        <v>0.0374920939665309</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2157008943.901036</v>
+        <v>1545121215.419059</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09222253618393744</v>
+        <v>0.123398228708966</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03299556092405834</v>
+        <v>0.03848927544930122</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1500467911.360524</v>
+        <v>1484532075.289243</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1092307508449047</v>
+        <v>0.0802231484935849</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0327921212509505</v>
+        <v>0.03749464386826216</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1822337757.304589</v>
+        <v>1517530028.757885</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1137031081651839</v>
+        <v>0.08515040525055308</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03266584550854495</v>
+        <v>0.03841110207250657</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2926068572.370164</v>
+        <v>1883549832.579884</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1385124157802037</v>
+        <v>0.1577527891690872</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05223965171096175</v>
+        <v>0.05211130327546722</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1465019227.988523</v>
+        <v>1131878438.526858</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1133948029847245</v>
+        <v>0.08720557868722875</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02658545184816953</v>
+        <v>0.02478462125742647</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>871135600.4956911</v>
+        <v>1144916851.348948</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0827423165512129</v>
+        <v>0.07534343191062197</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03128424658505366</v>
+        <v>0.04021837940967654</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2309160838.420564</v>
+        <v>2566128935.168665</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1481677816869081</v>
+        <v>0.1131642319129015</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02133722209917017</v>
+        <v>0.02392585400863178</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2829746681.396943</v>
+        <v>1808722277.88282</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08682692196098414</v>
+        <v>0.0832877843654954</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02859087395713433</v>
+        <v>0.02869441135634535</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1747867859.230105</v>
+        <v>1431567458.489697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08122179806031657</v>
+        <v>0.07984040747117228</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03420556678342768</v>
+        <v>0.02906617264953295</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1503196329.342575</v>
+        <v>1635864479.638639</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1605364535242255</v>
+        <v>0.1322941156874603</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02183896702140597</v>
+        <v>0.02461187622017499</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1761209756.290788</v>
+        <v>1624159418.229016</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1177456586330393</v>
+        <v>0.1025487891360167</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05381581937474537</v>
+        <v>0.04912302900118007</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1772146183.737644</v>
+        <v>2253398422.106866</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1568683634892856</v>
+        <v>0.1274246507101565</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02851599534329164</v>
+        <v>0.04545989182089191</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3800004973.113369</v>
+        <v>2880608396.860962</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1070685522233645</v>
+        <v>0.1127263442731158</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02960889847468914</v>
+        <v>0.03173521122411083</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2235674360.44067</v>
+        <v>2209320993.828293</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2037485814489465</v>
+        <v>0.1750509610027267</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01912660169072742</v>
+        <v>0.02560733398987323</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1716082964.130499</v>
+        <v>1688984069.687347</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06208071002067165</v>
+        <v>0.06753972825522592</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02477776487059571</v>
+        <v>0.02945500095092342</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1534687929.312706</v>
+        <v>1908336272.186702</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1627690398220477</v>
+        <v>0.1842401098022084</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03751523671944971</v>
+        <v>0.03559709955969993</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5570510818.71282</v>
+        <v>4562701677.405092</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1542125972815511</v>
+        <v>0.1155309429209839</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0376070466773229</v>
+        <v>0.03809796914197</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3552276006.129969</v>
+        <v>3443575672.176445</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1768582232565138</v>
+        <v>0.16365833201858</v>
       </c>
       <c r="G47" t="n">
-        <v>0.049293787227779</v>
+        <v>0.04975841341248512</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3957343070.873443</v>
+        <v>3608714683.471164</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0975659096896736</v>
+        <v>0.08499386704462907</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03322994813353149</v>
+        <v>0.03853059964403378</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1689569555.888218</v>
+        <v>1760749841.100656</v>
       </c>
       <c r="F49" t="n">
-        <v>0.129111807940213</v>
+        <v>0.1522397793814587</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02773335438362867</v>
+        <v>0.03044742575220821</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3263119859.20369</v>
+        <v>3246351250.135686</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1720047273096341</v>
+        <v>0.1558586115695134</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04648049847878899</v>
+        <v>0.05221659161448378</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1056794025.305658</v>
+        <v>1216555925.693102</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1417544559882376</v>
+        <v>0.1574509341291589</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04495105377733237</v>
+        <v>0.04761936977681686</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5209980266.293501</v>
+        <v>3316293156.060684</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1349824604094144</v>
+        <v>0.1137132022734543</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05065334799190638</v>
+        <v>0.05608128606888103</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3444975738.065308</v>
+        <v>3062855607.332943</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1960897917735769</v>
+        <v>0.1671326526784207</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02603003336145704</v>
+        <v>0.0290822912935657</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4530406541.983691</v>
+        <v>3539341211.453846</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1078455751892697</v>
+        <v>0.1310348805446014</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05164936395468708</v>
+        <v>0.04096093362254766</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3600641171.403237</v>
+        <v>4146695365.183508</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1981966801976751</v>
+        <v>0.1353411959007735</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03240947330826247</v>
+        <v>0.02968478440208721</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1139199026.334075</v>
+        <v>1353952573.742914</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1049933636806109</v>
+        <v>0.1273583680432762</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04828316503142337</v>
+        <v>0.04365668933634737</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3074349828.872715</v>
+        <v>3168410993.130548</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1564137960668343</v>
+        <v>0.1810763218546171</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01782988925340916</v>
+        <v>0.02506556778476082</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1749247918.100464</v>
+        <v>1844308649.493331</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1489367388516524</v>
+        <v>0.1676912648456474</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02424554947025403</v>
+        <v>0.02923317894694409</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4577574213.029251</v>
+        <v>4718381810.750725</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09415888225180764</v>
+        <v>0.1303127439712001</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03822537851145002</v>
+        <v>0.04579821703541846</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3270705096.549196</v>
+        <v>2483292505.353932</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1444712244512304</v>
+        <v>0.1434629575897002</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02488887022453939</v>
+        <v>0.02485121041414225</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2144712473.303598</v>
+        <v>3204651667.729828</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1361799314771361</v>
+        <v>0.1658059782836769</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02504779045960503</v>
+        <v>0.02236023105797799</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2103353355.238598</v>
+        <v>1630016895.4519</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1490990380562452</v>
+        <v>0.1671382420889422</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04819419344382011</v>
+        <v>0.04518068656430023</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5477347929.466338</v>
+        <v>4163949714.168562</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0992637514614273</v>
+        <v>0.0745267957784771</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03020937711912665</v>
+        <v>0.03506043882664486</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4338491088.389935</v>
+        <v>4216926572.439713</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1687275259152153</v>
+        <v>0.1563670957074865</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02853932525808524</v>
+        <v>0.03087242622891913</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5185284344.68364</v>
+        <v>3966734853.335443</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1721057727334739</v>
+        <v>0.1613974735441827</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02414514722012309</v>
+        <v>0.0273791447993903</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5161029295.566285</v>
+        <v>4181773615.730625</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1149943288178084</v>
+        <v>0.1561640321115576</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04485219705730667</v>
+        <v>0.03658206721254988</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2454625869.430495</v>
+        <v>2940976263.84767</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07742409531642419</v>
+        <v>0.06694976270244514</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03131855664428635</v>
+        <v>0.03721571230409181</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4029422224.049036</v>
+        <v>3878284649.620177</v>
       </c>
       <c r="F68" t="n">
-        <v>0.118802237908487</v>
+        <v>0.108408070086643</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04443776869401498</v>
+        <v>0.04283870762795142</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2178062537.343155</v>
+        <v>2199448090.934336</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1600163046801237</v>
+        <v>0.1497784893966246</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05911296271861575</v>
+        <v>0.05345280818767447</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3613622899.705597</v>
+        <v>2443546479.284327</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09818836368025308</v>
+        <v>0.1015484822412367</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04490139858899283</v>
+        <v>0.04488714471304601</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5489088951.452348</v>
+        <v>4828806659.205318</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1592621531379347</v>
+        <v>0.1219257705773973</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02890405394007482</v>
+        <v>0.02204604104495696</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1945748920.170299</v>
+        <v>2235109667.744533</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08232196771989464</v>
+        <v>0.1034041052503812</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04107188369668129</v>
+        <v>0.04836445962403128</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2838757725.642097</v>
+        <v>2959187091.687041</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09887150757083245</v>
+        <v>0.1001182958947585</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04025759815032381</v>
+        <v>0.05108302692203352</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3470552042.860852</v>
+        <v>2563324342.800132</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1833158872652513</v>
+        <v>0.1597638226829581</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03449431365251807</v>
+        <v>0.03268151878510531</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2086615064.86652</v>
+        <v>2101535067.968121</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1432917079371613</v>
+        <v>0.1504006078699907</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02971695052396399</v>
+        <v>0.03129101889607151</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5230231857.090588</v>
+        <v>3316396071.970264</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07825453550584822</v>
+        <v>0.1150094689136207</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0271529777604771</v>
+        <v>0.02337640437681175</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1778530528.529234</v>
+        <v>1615425966.078605</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1356664101566105</v>
+        <v>0.1727879892040438</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02385654700015176</v>
+        <v>0.02219540522839511</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3767091707.713927</v>
+        <v>3327654872.546767</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08705790985821922</v>
+        <v>0.08244030974835094</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04461788416187804</v>
+        <v>0.04031207752978374</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1632160306.380844</v>
+        <v>1206630569.951565</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1619926948967436</v>
+        <v>0.1434482070336992</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03879011894392009</v>
+        <v>0.03725651459240769</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4327014357.88739</v>
+        <v>4740382502.260871</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09775525600634559</v>
+        <v>0.08581380731327297</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03025280104654406</v>
+        <v>0.0297009049083325</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3589557938.706618</v>
+        <v>4992438132.401306</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08775353821646191</v>
+        <v>0.08352645292068904</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03197651638256684</v>
+        <v>0.02282063687254436</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4639481848.97567</v>
+        <v>5599788744.039364</v>
       </c>
       <c r="F82" t="n">
-        <v>0.208274352766651</v>
+        <v>0.2053957128950462</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02341413960528136</v>
+        <v>0.0222667448605182</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2044487991.831544</v>
+        <v>1591510542.393961</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1538449430682624</v>
+        <v>0.1231930183126229</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0452656696683592</v>
+        <v>0.03263994073777444</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2160419599.661153</v>
+        <v>2289337691.396821</v>
       </c>
       <c r="F84" t="n">
-        <v>0.104069109332733</v>
+        <v>0.1044588763697993</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04338342958402769</v>
+        <v>0.04057887964798122</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3298831522.194397</v>
+        <v>2960704019.763204</v>
       </c>
       <c r="F85" t="n">
-        <v>0.178823109490646</v>
+        <v>0.1780780955584576</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03577584332164496</v>
+        <v>0.05641077869676191</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1963712886.034702</v>
+        <v>1827620766.059391</v>
       </c>
       <c r="F86" t="n">
-        <v>0.118842848650345</v>
+        <v>0.147329527802694</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02756618527681361</v>
+        <v>0.01988860407534112</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1294384703.944435</v>
+        <v>1325420143.201479</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1277227121804053</v>
+        <v>0.1303281523716914</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04309159519958562</v>
+        <v>0.03082532322177717</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3165521026.519998</v>
+        <v>3201755322.528366</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1357602397716636</v>
+        <v>0.1443211438885949</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02680866247996337</v>
+        <v>0.03452295393734579</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3241286817.062302</v>
+        <v>2394287836.508987</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1155712847174058</v>
+        <v>0.1241044726707499</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03743664897450987</v>
+        <v>0.02618180516286811</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2011095854.21235</v>
+        <v>1824466552.993267</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08466877371052625</v>
+        <v>0.09902310438152451</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04031994570260939</v>
+        <v>0.05366192983125079</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1777688814.191637</v>
+        <v>1736977152.767676</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1901194913516469</v>
+        <v>0.1798389276183217</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05962394004718682</v>
+        <v>0.04604544191799968</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2533393963.960972</v>
+        <v>2387654343.723228</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1062322203328235</v>
+        <v>0.09205470727280499</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04365009585992261</v>
+        <v>0.03060432645685696</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4533667057.78214</v>
+        <v>4782473782.363955</v>
       </c>
       <c r="F93" t="n">
-        <v>0.103574492478408</v>
+        <v>0.1285529953009749</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03521092211538805</v>
+        <v>0.03943300125286846</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1950569804.529993</v>
+        <v>2384546202.342467</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1331857226057109</v>
+        <v>0.1407984109071697</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03962687876261698</v>
+        <v>0.03472231962567221</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3071665269.951893</v>
+        <v>3023691008.583158</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08975979085488234</v>
+        <v>0.1067337896996458</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05250319563676407</v>
+        <v>0.04960037074791691</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2296951644.271485</v>
+        <v>1916343263.226081</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1231602518690394</v>
+        <v>0.1150432265348992</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03927950124981648</v>
+        <v>0.03615009741598185</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4282471814.341941</v>
+        <v>4880627219.855263</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1408794553113627</v>
+        <v>0.1571364245473302</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0227730183232605</v>
+        <v>0.02159529325059174</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2967939896.000793</v>
+        <v>2470647205.381086</v>
       </c>
       <c r="F98" t="n">
-        <v>0.123286945632621</v>
+        <v>0.118291996278148</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02087004386594827</v>
+        <v>0.03041893939838452</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2287373055.702233</v>
+        <v>2275877975.544339</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1063786685213333</v>
+        <v>0.1340333786994414</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02396141049698358</v>
+        <v>0.02141689674466204</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4624457155.17637</v>
+        <v>3933780859.962703</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1621412973840483</v>
+        <v>0.1329467394528637</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02463342455237653</v>
+        <v>0.02001747599243622</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2618089121.782712</v>
+        <v>3059990443.678451</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2133028216821257</v>
+        <v>0.1450596386757182</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0422404308687307</v>
+        <v>0.04016461418714092</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_297.xlsx
+++ b/output/fit_clients/fit_round_297.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2331305270.077207</v>
+        <v>2472670206.215074</v>
       </c>
       <c r="F2" t="n">
-        <v>0.103846043027645</v>
+        <v>0.07920987096493634</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04036823705636172</v>
+        <v>0.03168821681953601</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2116929310.161699</v>
+        <v>2557776412.862857</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1579446848597655</v>
+        <v>0.1702123756691274</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04853248484691688</v>
+        <v>0.03212681412790883</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3233913421.386847</v>
+        <v>5121597066.956473</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1530371481871364</v>
+        <v>0.1144153367498761</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02645947325165386</v>
+        <v>0.02387937474594758</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>156</v>
+      </c>
+      <c r="J4" t="n">
+        <v>297</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3293692706.657603</v>
+        <v>3945746747.362495</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07522134446580019</v>
+        <v>0.1069910092506788</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04502633323973018</v>
+        <v>0.04202041815013191</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>121</v>
+      </c>
+      <c r="J5" t="n">
+        <v>297</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2685685376.97549</v>
+        <v>2822526446.563012</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09208150538539281</v>
+        <v>0.1488904087202297</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03934043649892056</v>
+        <v>0.0423936413877376</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2867009820.395066</v>
+        <v>2408507316.68135</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07725640922633317</v>
+        <v>0.1009322132065282</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03235612131817115</v>
+        <v>0.04112414791411159</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2869051741.175626</v>
+        <v>3538455681.181102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1998527508852922</v>
+        <v>0.1711409282505603</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02449136562216866</v>
+        <v>0.02226339864215029</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>79</v>
+      </c>
+      <c r="J8" t="n">
+        <v>295</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2243975332.276426</v>
+        <v>2051820364.747497</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1797313189857781</v>
+        <v>0.1568452381123887</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02874583259661288</v>
+        <v>0.03182579670048631</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4246659314.37002</v>
+        <v>5500887422.960105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1586073401118147</v>
+        <v>0.205509748399742</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03367642837829521</v>
+        <v>0.05139496786321499</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>264</v>
+      </c>
+      <c r="J10" t="n">
+        <v>296</v>
+      </c>
+      <c r="K10" t="n">
+        <v>84.60737765870022</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2905376201.447505</v>
+        <v>4190947846.25305</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1404847023789446</v>
+        <v>0.1848432812586841</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04851551475989416</v>
+        <v>0.03707424353049685</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>118</v>
+      </c>
+      <c r="J11" t="n">
+        <v>297</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,22 +847,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2110526044.131997</v>
+        <v>3050370683.137294</v>
       </c>
       <c r="F12" t="n">
-        <v>0.140196146032312</v>
+        <v>0.1649281031365969</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03709619701987614</v>
+        <v>0.03453163243070837</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="n">
+        <v>65.44442175713718</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4128827693.815733</v>
+        <v>3776904981.745994</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09234390036146178</v>
+        <v>0.07334692822853719</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02502905236169098</v>
+        <v>0.03087610070515073</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>152</v>
+      </c>
+      <c r="J13" t="n">
+        <v>296</v>
+      </c>
+      <c r="K13" t="n">
+        <v>84.11016620200989</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3324583279.860295</v>
+        <v>3469457589.89589</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1662246393102272</v>
+        <v>0.1160705460242869</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03143274947528819</v>
+        <v>0.03577318296128655</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>62</v>
+      </c>
+      <c r="J14" t="n">
+        <v>294</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1426970019.206378</v>
+        <v>1527912642.965545</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08117098314230206</v>
+        <v>0.0801627633258442</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03363405193533248</v>
+        <v>0.03948858858727097</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1949578122.104115</v>
+        <v>1994850748.625505</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09529058024161266</v>
+        <v>0.07709071094453505</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04255836205693615</v>
+        <v>0.04782323437072478</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4431976921.565613</v>
+        <v>3281083416.438673</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1537929936551363</v>
+        <v>0.1483501030073515</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03534089586967298</v>
+        <v>0.04851978939694883</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>141</v>
+      </c>
+      <c r="J17" t="n">
+        <v>295</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4019443971.338151</v>
+        <v>3381911199.762222</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1442849999444149</v>
+        <v>0.1223877009965043</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03370351094950235</v>
+        <v>0.02931511252129107</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>291</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1046133308.29153</v>
+        <v>879090391.4998381</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1326947774062152</v>
+        <v>0.1317265437112733</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02671093625838799</v>
+        <v>0.02180159499361405</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2555179799.220517</v>
+        <v>2399742692.289063</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1431636031263394</v>
+        <v>0.1431832797483232</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02871019586060374</v>
+        <v>0.02432479651662703</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2380605192.108567</v>
+        <v>2289367283.009255</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09035420532361466</v>
+        <v>0.08461165704192854</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04152964391947891</v>
+        <v>0.04170213731975003</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3328215537.101215</v>
+        <v>3941677946.304327</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1366757102487372</v>
+        <v>0.1194210836719443</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04632813681181946</v>
+        <v>0.04619862130933551</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>80</v>
+      </c>
+      <c r="J22" t="n">
+        <v>297</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1392213546.576713</v>
+        <v>1193257721.359122</v>
       </c>
       <c r="F23" t="n">
-        <v>0.17651090753348</v>
+        <v>0.1120454415183791</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03840815207504179</v>
+        <v>0.04319772671979894</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2829288680.825968</v>
+        <v>2875481833.699565</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1165472082075555</v>
+        <v>0.1108462790622997</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0313843487647887</v>
+        <v>0.02984189173831333</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>87</v>
+      </c>
+      <c r="J24" t="n">
+        <v>292</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>911748884.053637</v>
+        <v>1318219598.972957</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09283520971852632</v>
+        <v>0.09497371429960452</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01922092278900598</v>
+        <v>0.02492667758973873</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1032543625.490834</v>
+        <v>1401107200.058867</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1017125502356304</v>
+        <v>0.104513639311237</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0348536173592914</v>
+        <v>0.038994680140899</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4435771435.117579</v>
+        <v>4341461147.306445</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1325811118663899</v>
+        <v>0.1242115084279629</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01673050715894154</v>
+        <v>0.02481979237539355</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>122</v>
+      </c>
+      <c r="J27" t="n">
+        <v>297</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3154367546.64782</v>
+        <v>2362388597.656871</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1208261029120234</v>
+        <v>0.1506294840864187</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04767874213906088</v>
+        <v>0.04065205551401789</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>293</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1446,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5555444263.923455</v>
+        <v>4998724584.219587</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1082216996560772</v>
+        <v>0.09643181059470574</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0374920939665309</v>
+        <v>0.04192306134473195</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>280</v>
+      </c>
+      <c r="J29" t="n">
+        <v>297</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1545121215.419059</v>
+        <v>2132043408.88133</v>
       </c>
       <c r="F30" t="n">
-        <v>0.123398228708966</v>
+        <v>0.1340444972788961</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03848927544930122</v>
+        <v>0.03627036892510525</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1484532075.289243</v>
+        <v>1013166851.521313</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0802231484935849</v>
+        <v>0.07960181835318075</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03749464386826216</v>
+        <v>0.04727325888759148</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1557,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1517530028.757885</v>
+        <v>1816210547.625677</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08515040525055308</v>
+        <v>0.1105102993277533</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03841110207250657</v>
+        <v>0.02455150453536706</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1883549832.579884</v>
+        <v>2205149619.438975</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1577527891690872</v>
+        <v>0.1635380990317792</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05211130327546722</v>
+        <v>0.04286760758678861</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1627,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1131878438.526858</v>
+        <v>1162533121.570395</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08720557868722875</v>
+        <v>0.07849504591314874</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02478462125742647</v>
+        <v>0.02680545424228783</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1662,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1144916851.348948</v>
+        <v>881402428.9980099</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07534343191062197</v>
+        <v>0.1005109941918785</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04021837940967654</v>
+        <v>0.03697193134053746</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2566128935.168665</v>
+        <v>2961787482.233558</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1131642319129015</v>
+        <v>0.1199931010805879</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02392585400863178</v>
+        <v>0.02164181392364581</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1808722277.88282</v>
+        <v>2122765019.766762</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0832877843654954</v>
+        <v>0.08272984496602497</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02869441135634535</v>
+        <v>0.03735592978002989</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1767,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1431567458.489697</v>
+        <v>1818121544.17111</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07984040747117228</v>
+        <v>0.08736733641262316</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02906617264953295</v>
+        <v>0.03046569261199182</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1635864479.638639</v>
+        <v>1858170093.259214</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1322941156874603</v>
+        <v>0.1767696479566823</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02461187622017499</v>
+        <v>0.024983172663676</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1624159418.229016</v>
+        <v>1508463985.231796</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1025487891360167</v>
+        <v>0.1022381191657373</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04912302900118007</v>
+        <v>0.04410156746464139</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2253398422.106866</v>
+        <v>2359967385.505034</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1274246507101565</v>
+        <v>0.127900958389237</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04545989182089191</v>
+        <v>0.02879271889387563</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1901,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2880608396.860962</v>
+        <v>3830938542.755736</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1127263442731158</v>
+        <v>0.09014934653166445</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03173521122411083</v>
+        <v>0.03430683530515131</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>122</v>
+      </c>
+      <c r="J42" t="n">
+        <v>297</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1936,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2209320993.828293</v>
+        <v>2059779250.255622</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1750509610027267</v>
+        <v>0.1773936730254561</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02560733398987323</v>
+        <v>0.01597434696729693</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1971,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1688984069.687347</v>
+        <v>1511540244.782668</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06753972825522592</v>
+        <v>0.09416079193061616</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02945500095092342</v>
+        <v>0.03076829508358416</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2006,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1908336272.186702</v>
+        <v>2503496993.180714</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1842401098022084</v>
+        <v>0.1899458158257783</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03559709955969993</v>
+        <v>0.04269085641066866</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2041,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4562701677.405092</v>
+        <v>4264910053.805017</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1155309429209839</v>
+        <v>0.1612686762110123</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03809796914197</v>
+        <v>0.0381884398403427</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>176</v>
+      </c>
+      <c r="J46" t="n">
+        <v>297</v>
+      </c>
+      <c r="K46" t="n">
+        <v>85.76050933505928</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2078,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3443575672.176445</v>
+        <v>4455888477.376311</v>
       </c>
       <c r="F47" t="n">
-        <v>0.16365833201858</v>
+        <v>0.1223593894902836</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04975841341248512</v>
+        <v>0.04937573948903129</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>132</v>
+      </c>
+      <c r="J47" t="n">
+        <v>297</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2113,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3608714683.471164</v>
+        <v>4656933367.613886</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08499386704462907</v>
+        <v>0.06718802824158601</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03853059964403378</v>
+        <v>0.03118157627224528</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>148</v>
+      </c>
+      <c r="J48" t="n">
+        <v>297</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2148,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1760749841.100656</v>
+        <v>1815233129.279228</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1522397793814587</v>
+        <v>0.1181441265064959</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03044742575220821</v>
+        <v>0.04090424040943808</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2189,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3246351250.135686</v>
+        <v>3056287648.745093</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1558586115695134</v>
+        <v>0.126923177763914</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05221659161448378</v>
+        <v>0.04976898948858568</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>94</v>
+      </c>
+      <c r="J50" t="n">
+        <v>292</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2218,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1216555925.693102</v>
+        <v>1442159378.197309</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1574509341291589</v>
+        <v>0.1546109140081545</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04761936977681686</v>
+        <v>0.04594287968440663</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2253,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3316293156.060684</v>
+        <v>4717790214.860753</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1137132022734543</v>
+        <v>0.08665984226208041</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05608128606888103</v>
+        <v>0.04743997245321464</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>183</v>
+      </c>
+      <c r="J52" t="n">
+        <v>296</v>
+      </c>
+      <c r="K52" t="n">
+        <v>82.34744652682652</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2290,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3062855607.332943</v>
+        <v>3402640810.497366</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1671326526784207</v>
+        <v>0.157288446523894</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0290822912935657</v>
+        <v>0.03413900283223344</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2325,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3539341211.453846</v>
+        <v>4691434747.42342</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1310348805446014</v>
+        <v>0.1268652676476735</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04096093362254766</v>
+        <v>0.04796592007782779</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>157</v>
+      </c>
+      <c r="J54" t="n">
+        <v>296</v>
+      </c>
+      <c r="K54" t="n">
+        <v>84.07284468501626</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2368,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4146695365.183508</v>
+        <v>3266082342.301229</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1353411959007735</v>
+        <v>0.1410004937581669</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02968478440208721</v>
+        <v>0.03254853319116738</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>136</v>
+      </c>
+      <c r="J55" t="n">
+        <v>296</v>
+      </c>
+      <c r="K55" t="n">
+        <v>64.08830306418594</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2399,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1353952573.742914</v>
+        <v>1241727167.188103</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1273583680432762</v>
+        <v>0.1208235552313676</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04365668933634737</v>
+        <v>0.05470950229581006</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2434,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3168410993.130548</v>
+        <v>2971818003.611174</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1810763218546171</v>
+        <v>0.1133487405562879</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02506556778476082</v>
+        <v>0.02370181532048705</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>121</v>
+      </c>
+      <c r="J57" t="n">
+        <v>296</v>
+      </c>
+      <c r="K57" t="n">
+        <v>53.40369407505565</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1844308649.493331</v>
+        <v>1909887967.108061</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1676912648456474</v>
+        <v>0.1783146483480927</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02923317894694409</v>
+        <v>0.03818244682758183</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2506,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4718381810.750725</v>
+        <v>4454869368.980699</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1303127439712001</v>
+        <v>0.1219989228423418</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04579821703541846</v>
+        <v>0.03273199321937665</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>143</v>
+      </c>
+      <c r="J59" t="n">
+        <v>297</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2483292505.353932</v>
+        <v>3645500841.904092</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1434629575897002</v>
+        <v>0.155257290409703</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02485121041414225</v>
+        <v>0.02236406351532246</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3204651667.729828</v>
+        <v>2183997567.336125</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1658059782836769</v>
+        <v>0.1378872150360056</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02236023105797799</v>
+        <v>0.02832609376498636</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1630016895.4519</v>
+        <v>1615977792.823072</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1671382420889422</v>
+        <v>0.1752430608282354</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04518068656430023</v>
+        <v>0.04871636227521154</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2646,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4163949714.168562</v>
+        <v>5236582536.466312</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0745267957784771</v>
+        <v>0.09802491590625399</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03506043882664486</v>
+        <v>0.0470539336906103</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>144</v>
+      </c>
+      <c r="J63" t="n">
+        <v>297</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2687,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4216926572.439713</v>
+        <v>4150446663.682271</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1563670957074865</v>
+        <v>0.1608232022506187</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03087242622891913</v>
+        <v>0.03353576779262567</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>146</v>
+      </c>
+      <c r="J64" t="n">
+        <v>296</v>
+      </c>
+      <c r="K64" t="n">
+        <v>83.2247678870396</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2724,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3966734853.335443</v>
+        <v>5872846984.129926</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1613974735441827</v>
+        <v>0.1093604546657431</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0273791447993903</v>
+        <v>0.02763486175728246</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>237</v>
+      </c>
+      <c r="J65" t="n">
+        <v>296</v>
+      </c>
+      <c r="K65" t="n">
+        <v>82.90464428403689</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2755,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4181773615.730625</v>
+        <v>5202591603.119352</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1561640321115576</v>
+        <v>0.119597102496912</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03658206721254988</v>
+        <v>0.03401183897238858</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>146</v>
+      </c>
+      <c r="J66" t="n">
+        <v>297</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,22 +2790,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2940976263.84767</v>
+        <v>3340295853.41885</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06694976270244514</v>
+        <v>0.06682956086076412</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03721571230409181</v>
+        <v>0.03844011009755006</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="n">
+        <v>76.78662682480214</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3878284649.620177</v>
+        <v>5491186841.425058</v>
       </c>
       <c r="F68" t="n">
-        <v>0.108408070086643</v>
+        <v>0.1214672290672129</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04283870762795142</v>
+        <v>0.03951848195673612</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>157</v>
+      </c>
+      <c r="J68" t="n">
+        <v>297</v>
+      </c>
+      <c r="K68" t="n">
+        <v>85.37410059552408</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2199448090.934336</v>
+        <v>2125539546.461229</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1497784893966246</v>
+        <v>0.1632913930144383</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05345280818767447</v>
+        <v>0.04171814414399001</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2899,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2443546479.284327</v>
+        <v>3655261067.385834</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1015484822412367</v>
+        <v>0.103180577650417</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04488714471304601</v>
+        <v>0.04355220206522634</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>44</v>
+      </c>
+      <c r="J70" t="n">
+        <v>296</v>
+      </c>
+      <c r="K70" t="n">
+        <v>78.54312054836528</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4828806659.205318</v>
+        <v>4587108154.761136</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1219257705773973</v>
+        <v>0.1240434821407081</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02204604104495696</v>
+        <v>0.02256208538018479</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>222</v>
+      </c>
+      <c r="J71" t="n">
+        <v>297</v>
+      </c>
+      <c r="K71" t="n">
+        <v>85.76061352276216</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2235109667.744533</v>
+        <v>1851502674.269921</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1034041052503812</v>
+        <v>0.06655663340878409</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04836445962403128</v>
+        <v>0.04864607237702553</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2959187091.687041</v>
+        <v>3486024694.143092</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1001182958947585</v>
+        <v>0.08799659179086819</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05108302692203352</v>
+        <v>0.03791114287499777</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>295</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2563324342.800132</v>
+        <v>2653648802.788821</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1597638226829581</v>
+        <v>0.1650427166520207</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03268151878510531</v>
+        <v>0.02628504363673806</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>80</v>
+      </c>
+      <c r="J74" t="n">
+        <v>295</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2101535067.968121</v>
+        <v>1846980036.126847</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1504006078699907</v>
+        <v>0.1496340236749681</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03129101889607151</v>
+        <v>0.03650385823462838</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3316396071.970264</v>
+        <v>5343220109.280587</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1150094689136207</v>
+        <v>0.1072931958909027</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02337640437681175</v>
+        <v>0.03030780269287186</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>139</v>
+      </c>
+      <c r="J76" t="n">
+        <v>297</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1615425966.078605</v>
+        <v>2136403534.577788</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1727879892040438</v>
+        <v>0.1627321428702357</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02219540522839511</v>
+        <v>0.03066273576961851</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3327654872.546767</v>
+        <v>3005488674.120702</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08244030974835094</v>
+        <v>0.0979200326130704</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04031207752978374</v>
+        <v>0.05493535188344795</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>148</v>
+      </c>
+      <c r="J78" t="n">
+        <v>296</v>
+      </c>
+      <c r="K78" t="n">
+        <v>52.99986809605896</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1206630569.951565</v>
+        <v>1299140068.088121</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1434482070336992</v>
+        <v>0.1438353264943452</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03725651459240769</v>
+        <v>0.03827664634047127</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4740382502.260871</v>
+        <v>3716420912.068246</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08581380731327297</v>
+        <v>0.1074240857486552</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0297009049083325</v>
+        <v>0.03820152671243825</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>145</v>
+      </c>
+      <c r="J80" t="n">
+        <v>295</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4992438132.401306</v>
+        <v>4061592008.659338</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08352645292068904</v>
+        <v>0.109395992790631</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02282063687254436</v>
+        <v>0.02188956914827765</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>136</v>
+      </c>
+      <c r="J81" t="n">
+        <v>297</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5599788744.039364</v>
+        <v>5059271501.656333</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2053957128950462</v>
+        <v>0.1628516962693198</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0222667448605182</v>
+        <v>0.02483196464113488</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>217</v>
+      </c>
+      <c r="J82" t="n">
+        <v>297</v>
+      </c>
+      <c r="K82" t="n">
+        <v>86.79568075479098</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1591510542.393961</v>
+        <v>1663262813.537421</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1231930183126229</v>
+        <v>0.1323418547334168</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03263994073777444</v>
+        <v>0.03935005547848478</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2289337691.396821</v>
+        <v>1661587443.530087</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1044588763697993</v>
+        <v>0.1137363598382849</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04057887964798122</v>
+        <v>0.04511014615604029</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2960704019.763204</v>
+        <v>2654266850.617819</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1780780955584576</v>
+        <v>0.1711706503631577</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05641077869676191</v>
+        <v>0.04285988509100918</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1827620766.059391</v>
+        <v>2183546123.363308</v>
       </c>
       <c r="F86" t="n">
-        <v>0.147329527802694</v>
+        <v>0.1326238349225186</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01988860407534112</v>
+        <v>0.01741802576045962</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3508,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1325420143.201479</v>
+        <v>1497499205.920042</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1303281523716914</v>
+        <v>0.1171917851862592</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03082532322177717</v>
+        <v>0.03517585226935638</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3201755322.528366</v>
+        <v>3479144465.90938</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1443211438885949</v>
+        <v>0.1459761315519081</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03452295393734579</v>
+        <v>0.02552788261983127</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>42</v>
+      </c>
+      <c r="J88" t="n">
+        <v>296</v>
+      </c>
+      <c r="K88" t="n">
+        <v>81.88989513642609</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2394287836.508987</v>
+        <v>2544914418.383453</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1241044726707499</v>
+        <v>0.1026351845307131</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02618180516286811</v>
+        <v>0.03799233230208971</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1824466552.993267</v>
+        <v>1817136429.621564</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09902310438152451</v>
+        <v>0.1017784154088218</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05366192983125079</v>
+        <v>0.04938133063585099</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1736977152.767676</v>
+        <v>1322328629.012638</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1798389276183217</v>
+        <v>0.1687390188207643</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04604544191799968</v>
+        <v>0.05159711289980731</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2387654343.723228</v>
+        <v>2325987083.824726</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09205470727280499</v>
+        <v>0.0771676777876627</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03060432645685696</v>
+        <v>0.03581279452961032</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4782473782.363955</v>
+        <v>3205797223.256221</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1285529953009749</v>
+        <v>0.09771473395365485</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03943300125286846</v>
+        <v>0.04987658716240802</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>132</v>
+      </c>
+      <c r="J93" t="n">
+        <v>296</v>
+      </c>
+      <c r="K93" t="n">
+        <v>60.65829593903533</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2384546202.342467</v>
+        <v>1628238401.990973</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1407984109071697</v>
+        <v>0.105670198294327</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03472231962567221</v>
+        <v>0.04294766512385548</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3023691008.583158</v>
+        <v>2901950391.096706</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1067337896996458</v>
+        <v>0.09147893576756194</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04960037074791691</v>
+        <v>0.03798761635842883</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1916343263.226081</v>
+        <v>1964480977.773689</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1150432265348992</v>
+        <v>0.1200338137074517</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03615009741598185</v>
+        <v>0.03650166999981696</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4880627219.855263</v>
+        <v>5192020547.823265</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1571364245473302</v>
+        <v>0.1674274655242129</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02159529325059174</v>
+        <v>0.01845759369387487</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>147</v>
+      </c>
+      <c r="J97" t="n">
+        <v>297</v>
+      </c>
+      <c r="K97" t="n">
+        <v>86.4846809674532</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2470647205.381086</v>
+        <v>2956374253.472125</v>
       </c>
       <c r="F98" t="n">
-        <v>0.118291996278148</v>
+        <v>0.1288734743012298</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03041893939838452</v>
+        <v>0.03205929576424784</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>73</v>
+      </c>
+      <c r="J98" t="n">
+        <v>296</v>
+      </c>
+      <c r="K98" t="n">
+        <v>51.18409012418437</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2275877975.544339</v>
+        <v>3053525230.503589</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1340333786994414</v>
+        <v>0.09370507597253833</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02141689674466204</v>
+        <v>0.03029066437931788</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3933780859.962703</v>
+        <v>4676257648.41986</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1329467394528637</v>
+        <v>0.1121262301377745</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02001747599243622</v>
+        <v>0.02246596125241217</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>128</v>
+      </c>
+      <c r="J100" t="n">
+        <v>297</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3059990443.678451</v>
+        <v>2349419037.855998</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1450596386757182</v>
+        <v>0.2035399330275763</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04016461418714092</v>
+        <v>0.0578341822806139</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
